--- a/bills.xlsx
+++ b/bills.xlsx
@@ -5,16 +5,19 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/azizahouni/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/azizahouni/Desktop/amadeus_bills_code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D3B9AD9-B388-2442-AFDB-E918F6D2A281}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FD81756-74BF-204E-8AE8-8CBA0B73ECFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7460" yWindow="1400" windowWidth="27640" windowHeight="16720" xr2:uid="{479374EC-9DF5-5646-8BDB-F83B25D6AB94}"/>
+    <workbookView xWindow="1760" yWindow="1240" windowWidth="27640" windowHeight="16720" xr2:uid="{479374EC-9DF5-5646-8BDB-F83B25D6AB94}"/>
   </bookViews>
   <sheets>
     <sheet name="Office_details" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Office_details!$B$1:$B$1004</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2006" uniqueCount="1997">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2010" uniqueCount="2001">
   <si>
     <t>OFFICE ID</t>
   </si>
@@ -6027,6 +6030,18 @@
   </si>
   <si>
     <t>OUD MAKA ONLINE</t>
+  </si>
+  <si>
+    <t>IATA NUMBER</t>
+  </si>
+  <si>
+    <t>شركة بلوتو للخدمات السياحية</t>
+  </si>
+  <si>
+    <t>شركة أمازون للخدمات السياحية</t>
+  </si>
+  <si>
+    <t>OFFICE ARABIC NAME</t>
   </si>
 </sst>
 </file>
@@ -6438,28 +6453,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0496BF3-2A92-BD48-B73C-18BA5DB2D50F}">
-  <dimension ref="A1:B1004"/>
+  <dimension ref="A1:D1004"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.5" customWidth="1"/>
     <col min="2" max="2" width="46.5" customWidth="1"/>
-    <col min="3" max="3" width="24.33203125" customWidth="1"/>
+    <col min="3" max="3" width="28.33203125" customWidth="1"/>
+    <col min="4" max="4" width="24.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="44" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1" s="1" t="s">
+        <v>2000</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -6467,7 +6489,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -6475,7 +6497,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -6483,7 +6505,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -6491,7 +6513,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -6499,7 +6521,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
@@ -6507,7 +6529,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
@@ -6515,7 +6537,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
@@ -6523,7 +6545,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
@@ -6531,7 +6553,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>20</v>
       </c>
@@ -6539,7 +6561,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
@@ -6547,7 +6569,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>24</v>
       </c>
@@ -6555,7 +6577,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>26</v>
       </c>
@@ -6563,7 +6585,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>28</v>
       </c>
@@ -6571,7 +6593,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>30</v>
       </c>
@@ -7731,7 +7753,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
         <v>320</v>
       </c>
@@ -7739,7 +7761,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="s">
         <v>322</v>
       </c>
@@ -7747,7 +7769,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
         <v>324</v>
       </c>
@@ -7755,7 +7777,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="s">
         <v>326</v>
       </c>
@@ -7763,7 +7785,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165" s="2" t="s">
         <v>328</v>
       </c>
@@ -7771,7 +7793,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="s">
         <v>330</v>
       </c>
@@ -7779,7 +7801,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167" s="2" t="s">
         <v>332</v>
       </c>
@@ -7787,7 +7809,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168" s="2" t="s">
         <v>334</v>
       </c>
@@ -7795,7 +7817,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169" s="2" t="s">
         <v>336</v>
       </c>
@@ -7803,7 +7825,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170" s="2" t="s">
         <v>338</v>
       </c>
@@ -7811,7 +7833,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171" s="2" t="s">
         <v>340</v>
       </c>
@@ -7819,7 +7841,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172" s="2" t="s">
         <v>342</v>
       </c>
@@ -7827,7 +7849,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173" s="2" t="s">
         <v>344</v>
       </c>
@@ -7835,15 +7857,21 @@
         <v>345</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174" s="2" t="s">
         <v>346</v>
       </c>
       <c r="B174" s="2" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C174" t="s">
+        <v>1998</v>
+      </c>
+      <c r="D174">
+        <v>45211644</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175" s="2" t="s">
         <v>348</v>
       </c>
@@ -7851,7 +7879,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176" s="2" t="s">
         <v>350</v>
       </c>
@@ -10163,7 +10191,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="465" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A465" s="2" t="s">
         <v>923</v>
       </c>
@@ -10171,7 +10199,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="466" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A466" s="2" t="s">
         <v>925</v>
       </c>
@@ -10179,7 +10207,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="467" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A467" s="2" t="s">
         <v>927</v>
       </c>
@@ -10187,7 +10215,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="468" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A468" s="2" t="s">
         <v>929</v>
       </c>
@@ -10195,7 +10223,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="469" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A469" s="2" t="s">
         <v>931</v>
       </c>
@@ -10203,7 +10231,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="470" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A470" s="2" t="s">
         <v>933</v>
       </c>
@@ -10211,7 +10239,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="471" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A471" s="2" t="s">
         <v>935</v>
       </c>
@@ -10219,7 +10247,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="472" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A472" s="2" t="s">
         <v>937</v>
       </c>
@@ -10227,7 +10255,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="473" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A473" s="2" t="s">
         <v>939</v>
       </c>
@@ -10235,7 +10263,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="474" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A474" s="2" t="s">
         <v>941</v>
       </c>
@@ -10243,15 +10271,21 @@
         <v>942</v>
       </c>
     </row>
-    <row r="475" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A475" s="2" t="s">
         <v>943</v>
       </c>
       <c r="B475" s="2" t="s">
         <v>944</v>
       </c>
-    </row>
-    <row r="476" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C475" t="s">
+        <v>1999</v>
+      </c>
+      <c r="D475">
+        <v>45211073</v>
+      </c>
+    </row>
+    <row r="476" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A476" s="2" t="s">
         <v>945</v>
       </c>
@@ -10259,7 +10293,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="477" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A477" s="2" t="s">
         <v>947</v>
       </c>
@@ -10267,7 +10301,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="478" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A478" s="2" t="s">
         <v>949</v>
       </c>
@@ -10275,7 +10309,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="479" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A479" s="2" t="s">
         <v>951</v>
       </c>
@@ -10283,7 +10317,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="480" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A480" s="2" t="s">
         <v>953</v>
       </c>
@@ -14480,6 +14514,7 @@
       <c r="B1004" s="3"/>
     </row>
   </sheetData>
+  <autoFilter ref="B1:B1004" xr:uid="{D0496BF3-2A92-BD48-B73C-18BA5DB2D50F}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>